--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1875852.616663416</v>
+        <v>-1877502.572596964</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>327804.1964669447</v>
+        <v>206137.4047361963</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>181.0313416251956</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.28796821707176</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>214.7783761041941</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>116.4523629034475</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>149.4139868523341</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>137.081565665098</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>49.55409844946683</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F5" t="n">
-        <v>263.2420339516669</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.2420339516669</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>221.6810986918196</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>87.80598074015786</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>94.81232211885029</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>119.4332603207451</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="S7" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>314.9495391993288</v>
+        <v>255.5038077034953</v>
       </c>
       <c r="F8" t="n">
-        <v>277.4075541267687</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>314.9495391993288</v>
+        <v>15.0277006815614</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>314.9495391993282</v>
       </c>
       <c r="W8" t="n">
-        <v>314.9495391993288</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>314.9495391993282</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>314.9495391993282</v>
       </c>
     </row>
     <row r="9">
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12.28592628837273</v>
+        <v>91.021149461633</v>
       </c>
       <c r="S9" t="n">
         <v>168.949781751872</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>131.5307953536865</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9317006546987</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.935902156186305</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>209.7341242938622</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>217.6700264500478</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.8803167085259</v>
+        <v>374.880316708526</v>
       </c>
       <c r="C11" t="n">
-        <v>357.4193668160528</v>
+        <v>212.5962682758341</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>374.0768451173071</v>
+        <v>374.0768451173072</v>
       </c>
       <c r="F11" t="n">
-        <v>399.0225207867567</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.1884027699398</v>
+        <v>405.18840276994</v>
       </c>
       <c r="H11" t="n">
-        <v>308.4677588965119</v>
+        <v>308.4677588965121</v>
       </c>
       <c r="I11" t="n">
-        <v>115.4624951772042</v>
+        <v>115.4624951772044</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>149.6483415361853</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.345629752399</v>
       </c>
       <c r="U11" t="n">
-        <v>243.3112631696625</v>
+        <v>243.3112631696627</v>
       </c>
       <c r="V11" t="n">
-        <v>319.8987335151802</v>
+        <v>319.8987335151804</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>361.8775757235143</v>
+        <v>361.8775757235145</v>
       </c>
       <c r="Y11" t="n">
-        <v>189.5327656627072</v>
+        <v>378.384413701099</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.9784552269826</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>159.3932961436731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>137.5675230679765</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.3571860156777</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.4897021555768</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>215.7590001355976</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>56.00912576523243</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>244.2841183688735</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>278.6694733816365</v>
       </c>
       <c r="X13" t="n">
-        <v>217.8561304340824</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.058828918525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>319.1730344093023</v>
       </c>
       <c r="E14" t="n">
-        <v>346.4203628608811</v>
+        <v>240.9580309327116</v>
       </c>
       <c r="F14" t="n">
-        <v>371.3660385303308</v>
+        <v>371.3660385303307</v>
       </c>
       <c r="G14" t="n">
-        <v>377.5319205135139</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>21.33334240681932</v>
+        <v>280.8112766400859</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>87.80601292077826</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>121.9918592797593</v>
+        <v>121.9918592797592</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>177.6891474959729</v>
       </c>
       <c r="U14" t="n">
         <v>215.6547809132366</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>292.2422512587542</v>
       </c>
       <c r="W14" t="n">
-        <v>313.7309615060324</v>
+        <v>313.7309615060323</v>
       </c>
       <c r="X14" t="n">
-        <v>334.2210934670884</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>350.7279314446729</v>
@@ -1704,7 +1704,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I15" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914855</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676733</v>
       </c>
       <c r="S15" t="n">
         <v>149.2146408812902</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7368138872472</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>110.9239554351885</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>109.9110408115506</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>131.4668507063329</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>83.17404321880021</v>
+        <v>96.18479647555574</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.58491002545338</v>
       </c>
       <c r="T16" t="n">
-        <v>188.1025178791715</v>
+        <v>188.1025178791714</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.7537064301605</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>216.6276361124473</v>
       </c>
       <c r="W16" t="n">
-        <v>251.0129911252104</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>190.1996481776565</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>183.0746461407141</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E17" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F17" t="n">
         <v>316.885015469746</v>
@@ -1859,10 +1859,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I17" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.51083621917439</v>
+        <v>67.51083621917445</v>
       </c>
       <c r="T17" t="n">
         <v>123.2081244353881</v>
@@ -1901,16 +1901,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V17" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W17" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X17" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I18" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914854</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676732</v>
       </c>
       <c r="S18" t="n">
         <v>149.2146408812902</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.84094990997181</v>
+        <v>89.84094990997187</v>
       </c>
       <c r="C19" t="n">
-        <v>77.25579082666235</v>
+        <v>77.25579082666241</v>
       </c>
       <c r="D19" t="n">
-        <v>58.62444274624687</v>
+        <v>58.62444274624693</v>
       </c>
       <c r="E19" t="n">
-        <v>56.44293237460369</v>
+        <v>56.44293237460374</v>
       </c>
       <c r="F19" t="n">
-        <v>55.43001775096576</v>
+        <v>55.43001775096582</v>
       </c>
       <c r="G19" t="n">
-        <v>76.98582764574809</v>
+        <v>76.98582764574815</v>
       </c>
       <c r="H19" t="n">
-        <v>63.21968069866782</v>
+        <v>63.21968069866702</v>
       </c>
       <c r="I19" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S19" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T19" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U19" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V19" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W19" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X19" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I20" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.51083621917441</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T20" t="n">
         <v>123.2081244353881</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.84094990997183</v>
+        <v>89.84094990997181</v>
       </c>
       <c r="C22" t="n">
-        <v>77.25579082666236</v>
+        <v>77.25579082666235</v>
       </c>
       <c r="D22" t="n">
-        <v>58.62444274624688</v>
+        <v>58.62444274624687</v>
       </c>
       <c r="E22" t="n">
-        <v>56.4429323746037</v>
+        <v>56.44293237460369</v>
       </c>
       <c r="F22" t="n">
-        <v>55.43001775096577</v>
+        <v>55.43001775096576</v>
       </c>
       <c r="G22" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H22" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I22" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.70377341497094</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S22" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T22" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U22" t="n">
         <v>196.2726833695756</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.51083621917422</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T23" t="n">
         <v>123.2081244353881</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.70377341497103</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S25" t="n">
         <v>116.3521968385659</v>
@@ -2561,7 +2561,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E26" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F26" t="n">
         <v>316.885015469746</v>
@@ -2570,10 +2570,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H26" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I26" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T26" t="n">
-        <v>123.2081244353886</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U26" t="n">
         <v>161.1737578526518</v>
       </c>
       <c r="V26" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W26" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X26" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840888</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.84094990997185</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C28" t="n">
-        <v>77.25579082666239</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D28" t="n">
-        <v>58.62444274624691</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E28" t="n">
-        <v>56.44293237460373</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F28" t="n">
-        <v>55.4300177509658</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G28" t="n">
-        <v>76.98582764574813</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H28" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I28" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.70377341497097</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S28" t="n">
         <v>116.3521968385659</v>
@@ -2767,19 +2767,19 @@
         <v>133.6214948185867</v>
       </c>
       <c r="U28" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V28" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W28" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X28" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E29" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F29" t="n">
         <v>316.885015469746</v>
@@ -2810,7 +2810,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I29" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T29" t="n">
         <v>123.2081244353881</v>
@@ -2852,10 +2852,10 @@
         <v>237.7612281981694</v>
       </c>
       <c r="W29" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X29" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y29" t="n">
         <v>296.2469083840881</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997181</v>
       </c>
       <c r="C31" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666235</v>
       </c>
       <c r="D31" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624687</v>
       </c>
       <c r="E31" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460369</v>
       </c>
       <c r="F31" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096576</v>
       </c>
       <c r="G31" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H31" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I31" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S31" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T31" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U31" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V31" t="n">
         <v>162.1466130518625</v>
@@ -3016,7 +3016,7 @@
         <v>135.7186251170717</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.5936230801292</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917422</v>
       </c>
       <c r="T32" t="n">
         <v>123.2081244353881</v>
@@ -3272,7 +3272,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E35" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002965</v>
       </c>
       <c r="F35" t="n">
         <v>316.885015469746</v>
@@ -3284,7 +3284,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I35" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.51083621917422</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T35" t="n">
         <v>123.2081244353881</v>
@@ -3326,10 +3326,10 @@
         <v>237.7612281981694</v>
       </c>
       <c r="W35" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X35" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y35" t="n">
         <v>296.2469083840881</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C37" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D37" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E37" t="n">
-        <v>56.44293237460371</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F37" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G37" t="n">
-        <v>76.98582764574812</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H37" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I37" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S37" t="n">
         <v>116.3521968385659</v>
@@ -3478,7 +3478,7 @@
         <v>133.6214948185867</v>
       </c>
       <c r="U37" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V37" t="n">
         <v>162.1466130518625</v>
@@ -3509,7 +3509,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E38" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F38" t="n">
         <v>316.885015469746</v>
@@ -3518,10 +3518,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H38" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795014</v>
       </c>
       <c r="I38" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019343</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T38" t="n">
         <v>123.2081244353881</v>
@@ -3563,10 +3563,10 @@
         <v>237.7612281981694</v>
       </c>
       <c r="W38" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X38" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y38" t="n">
         <v>296.2469083840881</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.84094990997184</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C40" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D40" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E40" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F40" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G40" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574807</v>
       </c>
       <c r="H40" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866695</v>
       </c>
       <c r="I40" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633784</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497091</v>
       </c>
       <c r="S40" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T40" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U40" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V40" t="n">
         <v>162.1466130518625</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C41" t="n">
         <v>275.2818614990421</v>
@@ -3755,10 +3755,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H41" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I41" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T41" t="n">
         <v>123.2081244353881</v>
@@ -3797,7 +3797,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V41" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W41" t="n">
         <v>259.2499384454476</v>
@@ -3806,7 +3806,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.84094990997185</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C43" t="n">
-        <v>77.25579082666239</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D43" t="n">
-        <v>58.62444274624691</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E43" t="n">
-        <v>56.44293237460373</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F43" t="n">
-        <v>55.4300177509658</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G43" t="n">
-        <v>76.98582764574813</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H43" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866699</v>
       </c>
       <c r="I43" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.70377341497097</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S43" t="n">
         <v>116.3521968385659</v>
@@ -3955,16 +3955,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V43" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W43" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X43" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E44" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F44" t="n">
         <v>316.885015469746</v>
@@ -3992,10 +3992,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H44" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I44" t="n">
-        <v>33.32498986019344</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.51083621917439</v>
+        <v>67.51083621917422</v>
       </c>
       <c r="T44" t="n">
         <v>123.2081244353881</v>
@@ -4034,16 +4034,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V44" t="n">
-        <v>237.7612281981703</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W44" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X44" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I45" t="n">
-        <v>47.74894400914855</v>
+        <v>47.74894400914854</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.05405284676733</v>
+        <v>25.05405284676732</v>
       </c>
       <c r="S45" t="n">
         <v>149.2146408812902</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.84094990997181</v>
+        <v>89.84094990997187</v>
       </c>
       <c r="C46" t="n">
-        <v>77.25579082666235</v>
+        <v>77.25579082666241</v>
       </c>
       <c r="D46" t="n">
-        <v>58.62444274624687</v>
+        <v>58.62444274624693</v>
       </c>
       <c r="E46" t="n">
-        <v>56.44293237460369</v>
+        <v>56.44293237460374</v>
       </c>
       <c r="F46" t="n">
-        <v>55.43001775096576</v>
+        <v>55.43001775096582</v>
       </c>
       <c r="G46" t="n">
-        <v>76.98582764574809</v>
+        <v>76.98582764574815</v>
       </c>
       <c r="H46" t="n">
-        <v>63.21968069866696</v>
+        <v>63.21968069866703</v>
       </c>
       <c r="I46" t="n">
-        <v>34.96204714633785</v>
+        <v>34.96204714633791</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497096</v>
       </c>
       <c r="S46" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T46" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U46" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V46" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W46" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X46" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y46" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.7372794047155</v>
+        <v>258.9007661272524</v>
       </c>
       <c r="C2" t="n">
-        <v>475.7042164136626</v>
+        <v>258.9007661272524</v>
       </c>
       <c r="D2" t="n">
-        <v>228.6711534226096</v>
+        <v>258.9007661272524</v>
       </c>
       <c r="E2" t="n">
-        <v>228.6711534226096</v>
+        <v>258.9007661272524</v>
       </c>
       <c r="F2" t="n">
-        <v>45.81121238705855</v>
+        <v>251.9552653780489</v>
       </c>
       <c r="G2" t="n">
-        <v>30.36882024860223</v>
+        <v>236.5128732395926</v>
       </c>
       <c r="H2" t="n">
-        <v>30.36882024860223</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>30.36882024860223</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
         <v>19.56501858889139</v>
@@ -4349,31 +4349,31 @@
         <v>978.2509294445697</v>
       </c>
       <c r="Q2" t="n">
-        <v>969.7703423957685</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="R2" t="n">
-        <v>969.7703423957685</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S2" t="n">
-        <v>969.7703423957685</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="T2" t="n">
-        <v>969.7703423957685</v>
+        <v>752.9668921093582</v>
       </c>
       <c r="U2" t="n">
-        <v>969.7703423957685</v>
+        <v>752.9668921093582</v>
       </c>
       <c r="V2" t="n">
-        <v>969.7703423957685</v>
+        <v>505.9338291183053</v>
       </c>
       <c r="W2" t="n">
-        <v>722.7372794047155</v>
+        <v>505.9338291183053</v>
       </c>
       <c r="X2" t="n">
-        <v>722.7372794047155</v>
+        <v>258.9007661272524</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.7372794047155</v>
+        <v>258.9007661272524</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>514.8757280868508</v>
+        <v>178.8024735943469</v>
       </c>
       <c r="C3" t="n">
-        <v>514.8757280868508</v>
+        <v>178.8024735943469</v>
       </c>
       <c r="D3" t="n">
-        <v>365.9413184255995</v>
+        <v>178.8024735943469</v>
       </c>
       <c r="E3" t="n">
-        <v>365.9413184255995</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>248.3126690281778</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5898257028427</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5898257028427</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
         <v>19.56501858889139</v>
@@ -4410,19 +4410,19 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>146.1858617037014</v>
+        <v>144.9225786467288</v>
       </c>
       <c r="L3" t="n">
-        <v>376.1489675720505</v>
+        <v>374.885684515078</v>
       </c>
       <c r="M3" t="n">
-        <v>618.2660726095816</v>
+        <v>617.002789552609</v>
       </c>
       <c r="N3" t="n">
-        <v>795.6074518312189</v>
+        <v>736.1338244070387</v>
       </c>
       <c r="O3" t="n">
-        <v>795.6074518312189</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="P3" t="n">
         <v>978.2509294445697</v>
@@ -4434,25 +4434,25 @@
         <v>978.2509294445697</v>
       </c>
       <c r="S3" t="n">
-        <v>978.2509294445697</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T3" t="n">
-        <v>978.2509294445697</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="U3" t="n">
-        <v>750.0278363185936</v>
+        <v>576.7587556281616</v>
       </c>
       <c r="V3" t="n">
-        <v>514.8757280868508</v>
+        <v>576.7587556281616</v>
       </c>
       <c r="W3" t="n">
-        <v>514.8757280868508</v>
+        <v>329.7256926371086</v>
       </c>
       <c r="X3" t="n">
-        <v>514.8757280868508</v>
+        <v>329.7256926371086</v>
       </c>
       <c r="Y3" t="n">
-        <v>514.8757280868508</v>
+        <v>178.8024735943469</v>
       </c>
     </row>
     <row r="4">
@@ -4504,28 +4504,28 @@
         <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>156.0916735427112</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.61966348734273</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>69.61966348734273</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="S4" t="n">
-        <v>69.61966348734273</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T4" t="n">
-        <v>69.61966348734273</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U4" t="n">
-        <v>69.61966348734273</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V4" t="n">
-        <v>69.61966348734273</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>69.61966348734273</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
         <v>19.56501858889139</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>552.8614515073797</v>
+        <v>799.0911139693611</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8614515073797</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="D5" t="n">
-        <v>552.8614515073797</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="E5" t="n">
-        <v>552.8614515073797</v>
+        <v>267.2890251781155</v>
       </c>
       <c r="F5" t="n">
-        <v>286.9604071117565</v>
+        <v>260.3435244289121</v>
       </c>
       <c r="G5" t="n">
-        <v>21.05936271613335</v>
+        <v>244.979664425042</v>
       </c>
       <c r="H5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098027</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369335</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885148</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U5" t="n">
-        <v>818.7624959030029</v>
+        <v>799.0911139693611</v>
       </c>
       <c r="V5" t="n">
-        <v>552.8614515073797</v>
+        <v>799.0911139693611</v>
       </c>
       <c r="W5" t="n">
-        <v>552.8614515073797</v>
+        <v>799.0911139693611</v>
       </c>
       <c r="X5" t="n">
-        <v>552.8614515073797</v>
+        <v>799.0911139693611</v>
       </c>
       <c r="Y5" t="n">
-        <v>552.8614515073797</v>
+        <v>799.0911139693611</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>229.7156211970791</v>
+        <v>141.6990196057748</v>
       </c>
       <c r="C6" t="n">
-        <v>133.9455988548061</v>
+        <v>141.6990196057748</v>
       </c>
       <c r="D6" t="n">
-        <v>133.9455988548061</v>
+        <v>141.6990196057748</v>
       </c>
       <c r="E6" t="n">
-        <v>133.9455988548061</v>
+        <v>141.6990196057748</v>
       </c>
       <c r="F6" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G6" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>24.95018035683217</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K6" t="n">
-        <v>150.3077404146696</v>
+        <v>146.4169227739707</v>
       </c>
       <c r="L6" t="n">
-        <v>380.2708462830187</v>
+        <v>146.4169227739707</v>
       </c>
       <c r="M6" t="n">
-        <v>380.2708462830187</v>
+        <v>407.0265363861207</v>
       </c>
       <c r="N6" t="n">
-        <v>552.176685596025</v>
+        <v>667.6361499982706</v>
       </c>
       <c r="O6" t="n">
-        <v>800.9300996799873</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="P6" t="n">
-        <v>983.5735772933382</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S6" t="n">
-        <v>880.4795283993085</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T6" t="n">
-        <v>880.4795283993085</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="U6" t="n">
-        <v>880.4795283993085</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="V6" t="n">
-        <v>645.3274201675658</v>
+        <v>517.7658568313757</v>
       </c>
       <c r="W6" t="n">
-        <v>645.3274201675658</v>
+        <v>517.7658568313757</v>
       </c>
       <c r="X6" t="n">
-        <v>437.475919962033</v>
+        <v>309.9143566258429</v>
       </c>
       <c r="Y6" t="n">
-        <v>229.7156211970791</v>
+        <v>309.9143566258429</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N7" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>941.6673091212255</v>
+        <v>305.4056137690454</v>
       </c>
       <c r="C8" t="n">
-        <v>941.6673091212255</v>
+        <v>305.4056137690454</v>
       </c>
       <c r="D8" t="n">
-        <v>941.6673091212255</v>
+        <v>305.4056137690454</v>
       </c>
       <c r="E8" t="n">
-        <v>623.5364614451357</v>
+        <v>47.32095952309054</v>
       </c>
       <c r="F8" t="n">
-        <v>343.3268108120361</v>
+        <v>40.37545877388706</v>
       </c>
       <c r="G8" t="n">
-        <v>25.1959631359463</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="H8" t="n">
-        <v>25.1959631359463</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="I8" t="n">
-        <v>25.1959631359463</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="J8" t="n">
         <v>36.47614005386663</v>
       </c>
       <c r="K8" t="n">
-        <v>174.1270054172969</v>
+        <v>174.1270054172967</v>
       </c>
       <c r="L8" t="n">
-        <v>397.1717033649884</v>
+        <v>397.1717033649877</v>
       </c>
       <c r="M8" t="n">
-        <v>661.9584514171003</v>
+        <v>661.9584514170992</v>
       </c>
       <c r="N8" t="n">
-        <v>916.3977283329045</v>
+        <v>916.3977283329031</v>
       </c>
       <c r="O8" t="n">
-        <v>1111.469884645408</v>
+        <v>1111.469884645406</v>
       </c>
       <c r="P8" t="n">
-        <v>1240.285073996753</v>
+        <v>1240.285073996751</v>
       </c>
       <c r="Q8" t="n">
-        <v>1259.798156797315</v>
+        <v>1259.798156797313</v>
       </c>
       <c r="R8" t="n">
-        <v>1259.798156797315</v>
+        <v>1259.798156797313</v>
       </c>
       <c r="S8" t="n">
-        <v>1259.798156797315</v>
+        <v>1259.798156797313</v>
       </c>
       <c r="T8" t="n">
-        <v>1259.798156797315</v>
+        <v>1259.798156797313</v>
       </c>
       <c r="U8" t="n">
-        <v>1259.798156797315</v>
+        <v>1259.798156797313</v>
       </c>
       <c r="V8" t="n">
-        <v>1259.798156797315</v>
+        <v>941.6673091212238</v>
       </c>
       <c r="W8" t="n">
-        <v>941.6673091212255</v>
+        <v>941.6673091212238</v>
       </c>
       <c r="X8" t="n">
-        <v>941.6673091212255</v>
+        <v>623.5364614451346</v>
       </c>
       <c r="Y8" t="n">
-        <v>941.6673091212255</v>
+        <v>305.4056137690454</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>171.7305211090613</v>
+        <v>174.1303727971975</v>
       </c>
       <c r="C9" t="n">
-        <v>171.7305211090613</v>
+        <v>174.1303727971975</v>
       </c>
       <c r="D9" t="n">
-        <v>171.7305211090613</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="E9" t="n">
-        <v>171.7305211090613</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="F9" t="n">
-        <v>25.1959631359463</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="G9" t="n">
-        <v>25.1959631359463</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="H9" t="n">
-        <v>25.1959631359463</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="I9" t="n">
-        <v>25.1959631359463</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="J9" t="n">
-        <v>36.72847163851338</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="K9" t="n">
-        <v>185.6111423961412</v>
+        <v>150.5535231937837</v>
       </c>
       <c r="L9" t="n">
-        <v>447.2066627793374</v>
+        <v>380.5166290621328</v>
       </c>
       <c r="M9" t="n">
-        <v>447.2066627793374</v>
+        <v>692.3166728694678</v>
       </c>
       <c r="N9" t="n">
-        <v>759.0067065866729</v>
+        <v>1004.116716676803</v>
       </c>
       <c r="O9" t="n">
-        <v>1007.760120670635</v>
+        <v>1007.760120670633</v>
       </c>
       <c r="P9" t="n">
-        <v>1190.403598283986</v>
+        <v>1190.403598283984</v>
       </c>
       <c r="Q9" t="n">
-        <v>1259.798156797315</v>
+        <v>1259.798156797313</v>
       </c>
       <c r="R9" t="n">
-        <v>1247.388130243403</v>
+        <v>1167.857601785562</v>
       </c>
       <c r="S9" t="n">
-        <v>1076.731785039492</v>
+        <v>997.2012565816513</v>
       </c>
       <c r="T9" t="n">
-        <v>1076.731785039492</v>
+        <v>864.3418673355033</v>
       </c>
       <c r="U9" t="n">
-        <v>1076.731785039492</v>
+        <v>636.1280282903531</v>
       </c>
       <c r="V9" t="n">
-        <v>841.5796768077496</v>
+        <v>636.1280282903531</v>
       </c>
       <c r="W9" t="n">
-        <v>587.342320079548</v>
+        <v>381.8906715621515</v>
       </c>
       <c r="X9" t="n">
-        <v>379.4908198740152</v>
+        <v>381.8906715621515</v>
       </c>
       <c r="Y9" t="n">
-        <v>171.7305211090613</v>
+        <v>174.1303727971975</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.21202591997287</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="C10" t="n">
-        <v>33.21202591997287</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="D10" t="n">
-        <v>33.21202591997287</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="E10" t="n">
-        <v>33.21202591997287</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="F10" t="n">
-        <v>33.21202591997287</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="G10" t="n">
-        <v>33.21202591997287</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="H10" t="n">
-        <v>33.21202591997287</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="I10" t="n">
-        <v>33.21202591997287</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="J10" t="n">
-        <v>33.21202591997287</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="K10" t="n">
-        <v>25.1959631359463</v>
+        <v>25.19596313594626</v>
       </c>
       <c r="L10" t="n">
-        <v>70.66872743971838</v>
+        <v>70.6687274397182</v>
       </c>
       <c r="M10" t="n">
-        <v>129.0025047405346</v>
+        <v>129.0025047405343</v>
       </c>
       <c r="N10" t="n">
-        <v>191.3838516213936</v>
+        <v>191.3838516213931</v>
       </c>
       <c r="O10" t="n">
-        <v>232.9868266649468</v>
+        <v>232.9868266649462</v>
       </c>
       <c r="P10" t="n">
-        <v>245.0646767218539</v>
+        <v>245.0646767218531</v>
       </c>
       <c r="Q10" t="n">
-        <v>245.0646767218539</v>
+        <v>245.0646767218531</v>
       </c>
       <c r="R10" t="n">
-        <v>245.0646767218539</v>
+        <v>245.0646767218531</v>
       </c>
       <c r="S10" t="n">
-        <v>33.21202591997287</v>
+        <v>245.0646767218531</v>
       </c>
       <c r="T10" t="n">
-        <v>33.21202591997287</v>
+        <v>245.0646767218531</v>
       </c>
       <c r="U10" t="n">
-        <v>33.21202591997287</v>
+        <v>245.0646767218531</v>
       </c>
       <c r="V10" t="n">
-        <v>33.21202591997287</v>
+        <v>245.0646767218531</v>
       </c>
       <c r="W10" t="n">
-        <v>33.21202591997287</v>
+        <v>245.0646767218531</v>
       </c>
       <c r="X10" t="n">
-        <v>33.21202591997287</v>
+        <v>245.0646767218531</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.21202591997287</v>
+        <v>25.19596313594626</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2050.533294845768</v>
+        <v>1501.194285424581</v>
       </c>
       <c r="C11" t="n">
-        <v>1689.50363139521</v>
+        <v>1286.450580095456</v>
       </c>
       <c r="D11" t="n">
-        <v>1689.50363139521</v>
+        <v>1286.450580095456</v>
       </c>
       <c r="E11" t="n">
-        <v>1311.648232286819</v>
+        <v>908.5951809870651</v>
       </c>
       <c r="F11" t="n">
-        <v>908.5951809870647</v>
+        <v>908.5951809870651</v>
       </c>
       <c r="G11" t="n">
-        <v>499.3139660679336</v>
+        <v>499.3139660679338</v>
       </c>
       <c r="H11" t="n">
-        <v>187.730371222972</v>
+        <v>187.7303712229722</v>
       </c>
       <c r="I11" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J11" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397096</v>
       </c>
       <c r="K11" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723845</v>
       </c>
       <c r="L11" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M11" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N11" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O11" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P11" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003674</v>
       </c>
       <c r="Q11" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R11" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S11" t="n">
-        <v>3555.079410784749</v>
+        <v>3403.919469839108</v>
       </c>
       <c r="T11" t="n">
-        <v>3555.079410784749</v>
+        <v>3196.499641806382</v>
       </c>
       <c r="U11" t="n">
-        <v>3309.31045808812</v>
+        <v>2950.730689109753</v>
       </c>
       <c r="V11" t="n">
-        <v>2986.180424234403</v>
+        <v>2627.600655256036</v>
       </c>
       <c r="W11" t="n">
-        <v>2986.180424234403</v>
+        <v>2627.600655256036</v>
       </c>
       <c r="X11" t="n">
-        <v>2620.647519463176</v>
+        <v>2262.067750484809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2429.200281420037</v>
+        <v>1879.86127199885</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I12" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J12" t="n">
-        <v>183.5040598342603</v>
+        <v>71.101588215695</v>
       </c>
       <c r="K12" t="n">
-        <v>502.2386301474696</v>
+        <v>389.8361585289043</v>
       </c>
       <c r="L12" t="n">
-        <v>992.2209905094544</v>
+        <v>619.7992643972534</v>
       </c>
       <c r="M12" t="n">
-        <v>1312.556310039156</v>
+        <v>1243.564789605115</v>
       </c>
       <c r="N12" t="n">
-        <v>1779.885177659718</v>
+        <v>1876.502775607611</v>
       </c>
       <c r="O12" t="n">
-        <v>2028.63859174368</v>
+        <v>2410.182247635543</v>
       </c>
       <c r="P12" t="n">
-        <v>2439.960350382057</v>
+        <v>2592.825725248894</v>
       </c>
       <c r="Q12" t="n">
         <v>2662.220283762224</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>517.8874520816823</v>
+        <v>71.101588215695</v>
       </c>
       <c r="C13" t="n">
-        <v>356.8841226436286</v>
+        <v>71.101588215695</v>
       </c>
       <c r="D13" t="n">
-        <v>356.8841226436286</v>
+        <v>71.101588215695</v>
       </c>
       <c r="E13" t="n">
-        <v>356.8841226436286</v>
+        <v>71.101588215695</v>
       </c>
       <c r="F13" t="n">
-        <v>217.9270286355715</v>
+        <v>71.101588215695</v>
       </c>
       <c r="G13" t="n">
-        <v>217.9270286355715</v>
+        <v>71.101588215695</v>
       </c>
       <c r="H13" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="I13" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J13" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4740291279863</v>
+        <v>173.4740291279861</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8276222186239</v>
+        <v>357.8276222186236</v>
       </c>
       <c r="M13" t="n">
-        <v>562.1691141411727</v>
+        <v>562.1691141411723</v>
       </c>
       <c r="N13" t="n">
-        <v>767.2713104105862</v>
+        <v>767.2713104105856</v>
       </c>
       <c r="O13" t="n">
-        <v>941.2936181972447</v>
+        <v>941.293618197244</v>
       </c>
       <c r="P13" t="n">
-        <v>1067.801226403959</v>
+        <v>1067.801226403958</v>
       </c>
       <c r="Q13" t="n">
-        <v>1074.345446606521</v>
+        <v>1074.34544660652</v>
       </c>
       <c r="R13" t="n">
-        <v>1074.345446606521</v>
+        <v>1074.34544660652</v>
       </c>
       <c r="S13" t="n">
-        <v>1074.345446606521</v>
+        <v>873.8507979645231</v>
       </c>
       <c r="T13" t="n">
-        <v>1074.345446606521</v>
+        <v>655.9124139891721</v>
       </c>
       <c r="U13" t="n">
-        <v>1074.345446606521</v>
+        <v>599.3375394788363</v>
       </c>
       <c r="V13" t="n">
-        <v>1074.345446606521</v>
+        <v>352.5859047628026</v>
       </c>
       <c r="W13" t="n">
-        <v>1074.345446606521</v>
+        <v>71.101588215695</v>
       </c>
       <c r="X13" t="n">
-        <v>854.2887491983568</v>
+        <v>71.101588215695</v>
       </c>
       <c r="Y13" t="n">
-        <v>691.6030634220688</v>
+        <v>71.101588215695</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1854.523389509103</v>
+        <v>1717.442273056943</v>
       </c>
       <c r="C14" t="n">
-        <v>1521.429566721601</v>
+        <v>1384.348450269441</v>
       </c>
       <c r="D14" t="n">
-        <v>1199.032562267761</v>
+        <v>1061.951445815601</v>
       </c>
       <c r="E14" t="n">
-        <v>849.1130038224264</v>
+        <v>818.5594953785182</v>
       </c>
       <c r="F14" t="n">
-        <v>473.9957931857286</v>
+        <v>443.4422847418205</v>
       </c>
       <c r="G14" t="n">
-        <v>92.65041892965391</v>
+        <v>443.4422847418205</v>
       </c>
       <c r="H14" t="n">
-        <v>71.10158821569499</v>
+        <v>159.7945305599155</v>
       </c>
       <c r="I14" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J14" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K14" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L14" t="n">
         <v>1170.239882220686</v>
@@ -5306,22 +5306,22 @@
         <v>3431.855310502164</v>
       </c>
       <c r="T14" t="n">
-        <v>3431.855310502164</v>
+        <v>3252.371323132494</v>
       </c>
       <c r="U14" t="n">
-        <v>3214.022198468592</v>
+        <v>3034.538211098922</v>
       </c>
       <c r="V14" t="n">
-        <v>3214.022198468592</v>
+        <v>2739.344017908261</v>
       </c>
       <c r="W14" t="n">
-        <v>2897.122237351387</v>
+        <v>2422.444056791057</v>
       </c>
       <c r="X14" t="n">
-        <v>2559.525173243217</v>
+        <v>2422.444056791057</v>
       </c>
       <c r="Y14" t="n">
-        <v>2205.254535420315</v>
+        <v>2068.173418968155</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5361,16 @@
         <v>502.2386301474696</v>
       </c>
       <c r="L15" t="n">
-        <v>992.2209905094544</v>
+        <v>732.2017360158188</v>
       </c>
       <c r="M15" t="n">
-        <v>1312.556310039156</v>
+        <v>1150.43846407813</v>
       </c>
       <c r="N15" t="n">
-        <v>1657.076965676774</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O15" t="n">
-        <v>2028.638591743681</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P15" t="n">
         <v>2439.960350382057</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.0295284584417</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="C16" t="n">
-        <v>426.9620396834446</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="D16" t="n">
-        <v>426.9620396834446</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="E16" t="n">
-        <v>314.9176402539612</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="F16" t="n">
-        <v>203.8963869089606</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="G16" t="n">
         <v>71.10158821569499</v>
@@ -5434,52 +5434,52 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J16" t="n">
-        <v>84.81230904153279</v>
+        <v>84.8123090415329</v>
       </c>
       <c r="K16" t="n">
-        <v>214.5646673876857</v>
+        <v>214.5646673876859</v>
       </c>
       <c r="L16" t="n">
-        <v>426.298177912185</v>
+        <v>426.2981779121852</v>
       </c>
       <c r="M16" t="n">
-        <v>658.0195872685955</v>
+        <v>658.0195872685958</v>
       </c>
       <c r="N16" t="n">
-        <v>890.5017009718707</v>
+        <v>890.5017009718711</v>
       </c>
       <c r="O16" t="n">
         <v>1091.903926192391</v>
       </c>
       <c r="P16" t="n">
-        <v>1245.791451832966</v>
+        <v>1245.791451832967</v>
       </c>
       <c r="Q16" t="n">
-        <v>1279.71558946939</v>
+        <v>1279.715589469391</v>
       </c>
       <c r="R16" t="n">
-        <v>1195.701404399895</v>
+        <v>1182.559229393072</v>
       </c>
       <c r="S16" t="n">
-        <v>1195.701404399895</v>
+        <v>1110.251239468372</v>
       </c>
       <c r="T16" t="n">
-        <v>1005.6988610876</v>
+        <v>920.2486961560772</v>
       </c>
       <c r="U16" t="n">
-        <v>1005.6988610876</v>
+        <v>666.9621240043999</v>
       </c>
       <c r="V16" t="n">
-        <v>1005.6988610876</v>
+        <v>448.1463299514229</v>
       </c>
       <c r="W16" t="n">
-        <v>752.1503852035494</v>
+        <v>448.1463299514229</v>
       </c>
       <c r="X16" t="n">
-        <v>560.0295284584417</v>
+        <v>256.0254732063153</v>
       </c>
       <c r="Y16" t="n">
-        <v>560.0295284584417</v>
+        <v>71.10158821569499</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>1820.095900347439</v>
       </c>
       <c r="C17" t="n">
-        <v>1542.033413984771</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D17" t="n">
-        <v>1274.667745955763</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E17" t="n">
-        <v>979.7795239352616</v>
+        <v>979.7795239352608</v>
       </c>
       <c r="F17" t="n">
-        <v>659.6936497233969</v>
+        <v>659.6936497233962</v>
       </c>
       <c r="G17" t="n">
-        <v>333.379611892155</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H17" t="n">
-        <v>104.7631941350822</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I17" t="n">
-        <v>71.10158821569485</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J17" t="n">
         <v>249.2363626397091</v>
@@ -5519,25 +5519,25 @@
         <v>636.9590170723841</v>
       </c>
       <c r="L17" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M17" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N17" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O17" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P17" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003674</v>
       </c>
       <c r="Q17" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R17" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S17" t="n">
         <v>3486.886646926998</v>
@@ -5558,7 +5558,7 @@
         <v>2415.035011231887</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.795709833818</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I18" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J18" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K18" t="n">
-        <v>389.8361585289043</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L18" t="n">
-        <v>879.8185188908891</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M18" t="n">
-        <v>1435.3645220221</v>
+        <v>1312.556310039156</v>
       </c>
       <c r="N18" t="n">
-        <v>1779.885177659718</v>
+        <v>1647.824494582585</v>
       </c>
       <c r="O18" t="n">
-        <v>2028.638591743681</v>
+        <v>2181.503966610518</v>
       </c>
       <c r="P18" t="n">
-        <v>2439.960350382057</v>
+        <v>2592.825725248894</v>
       </c>
       <c r="Q18" t="n">
         <v>2662.220283762224</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.2942540634045</v>
+        <v>498.2942540634041</v>
       </c>
       <c r="C19" t="n">
-        <v>420.2581017132405</v>
+        <v>420.25810171324</v>
       </c>
       <c r="D19" t="n">
-        <v>361.0414928786477</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E19" t="n">
-        <v>304.0284298739975</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F19" t="n">
-        <v>248.0385129538301</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G19" t="n">
-        <v>170.2750506853977</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H19" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I19" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J19" t="n">
-        <v>138.748521871512</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K19" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L19" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M19" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885121</v>
       </c>
       <c r="N19" t="n">
         <v>1160.182765121766</v>
@@ -5692,16 +5692,16 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q19" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R19" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S19" t="n">
         <v>1551.55279690363</v>
       </c>
       <c r="T19" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U19" t="n">
         <v>1218.326354289324</v>
@@ -5710,13 +5710,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W19" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019625</v>
       </c>
       <c r="X19" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.0426883159013</v>
+        <v>589.0426883159009</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C20" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D20" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E20" t="n">
-        <v>979.7795239352611</v>
+        <v>979.7795239352608</v>
       </c>
       <c r="F20" t="n">
-        <v>659.6936497233964</v>
+        <v>659.693649723396</v>
       </c>
       <c r="G20" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921546</v>
       </c>
       <c r="H20" t="n">
         <v>104.7631941350823</v>
       </c>
       <c r="I20" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J20" t="n">
-        <v>249.2363626397087</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K20" t="n">
-        <v>636.9590170723832</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L20" t="n">
         <v>1170.239882220686</v>
@@ -5771,16 +5771,16 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q20" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R20" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S20" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T20" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U20" t="n">
         <v>3199.632220373422</v>
@@ -5792,7 +5792,7 @@
         <v>2697.600738915223</v>
       </c>
       <c r="X20" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y20" t="n">
         <v>2115.795709833817</v>
@@ -5838,16 +5838,16 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M21" t="n">
-        <v>1312.556310039156</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N21" t="n">
-        <v>1717.219053095914</v>
+        <v>2008.563458684744</v>
       </c>
       <c r="O21" t="n">
-        <v>2250.898525123846</v>
+        <v>2257.316872768706</v>
       </c>
       <c r="P21" t="n">
-        <v>2662.220283762224</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q21" t="n">
         <v>2662.220283762224</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.2942540634038</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C22" t="n">
-        <v>420.2581017132398</v>
+        <v>420.2581017132397</v>
       </c>
       <c r="D22" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E22" t="n">
         <v>304.0284298739967</v>
       </c>
       <c r="F22" t="n">
-        <v>248.0385129538293</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G22" t="n">
         <v>170.2750506853968</v>
@@ -5911,7 +5911,7 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K22" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L22" t="n">
         <v>588.1068164021221</v>
@@ -5929,31 +5929,31 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q22" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R22" t="n">
         <v>1669.080268457737</v>
       </c>
       <c r="S22" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T22" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U22" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V22" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W22" t="n">
-        <v>856.0247572019624</v>
+        <v>856.024757201963</v>
       </c>
       <c r="X22" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816884</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="23">
@@ -6069,22 +6069,22 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K24" t="n">
-        <v>502.2386301474696</v>
+        <v>498.8530716332093</v>
       </c>
       <c r="L24" t="n">
-        <v>992.2209905094544</v>
+        <v>728.8161775015584</v>
       </c>
       <c r="M24" t="n">
-        <v>1312.556310039156</v>
+        <v>1352.581702709421</v>
       </c>
       <c r="N24" t="n">
-        <v>1717.219053095914</v>
+        <v>2008.563458684744</v>
       </c>
       <c r="O24" t="n">
-        <v>2250.898525123846</v>
+        <v>2257.316872768706</v>
       </c>
       <c r="P24" t="n">
-        <v>2662.220283762224</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q24" t="n">
         <v>2662.220283762224</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.2942540634038</v>
+        <v>498.2942540634041</v>
       </c>
       <c r="C25" t="n">
-        <v>420.2581017132398</v>
+        <v>420.2581017132401</v>
       </c>
       <c r="D25" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786473</v>
       </c>
       <c r="E25" t="n">
-        <v>304.0284298739967</v>
+        <v>304.0284298739971</v>
       </c>
       <c r="F25" t="n">
         <v>248.0385129538293</v>
@@ -6145,16 +6145,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J25" t="n">
-        <v>138.7485218715121</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4370930476441</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L25" t="n">
-        <v>588.1068164021224</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M25" t="n">
-        <v>873.7644385885119</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N25" t="n">
         <v>1160.182765121766</v>
@@ -6184,13 +6184,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W25" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019626</v>
       </c>
       <c r="X25" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816882</v>
       </c>
       <c r="Y25" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159009</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E26" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F26" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G26" t="n">
         <v>333.3796118921542</v>
@@ -6266,7 +6266,7 @@
         <v>2697.600738915223</v>
       </c>
       <c r="X26" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y26" t="n">
         <v>2115.795709833817</v>
@@ -6309,19 +6309,19 @@
         <v>502.2386301474696</v>
       </c>
       <c r="L27" t="n">
-        <v>732.2017360158188</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M27" t="n">
-        <v>1150.43846407813</v>
+        <v>1312.556310039156</v>
       </c>
       <c r="N27" t="n">
-        <v>1494.959119715748</v>
+        <v>1657.076965676774</v>
       </c>
       <c r="O27" t="n">
-        <v>2028.63859174368</v>
+        <v>2181.503966610518</v>
       </c>
       <c r="P27" t="n">
-        <v>2439.960350382057</v>
+        <v>2592.825725248894</v>
       </c>
       <c r="Q27" t="n">
         <v>2662.220283762224</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.2942540634034</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C28" t="n">
-        <v>420.2581017132394</v>
+        <v>420.2581017132397</v>
       </c>
       <c r="D28" t="n">
-        <v>361.0414928786466</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E28" t="n">
-        <v>304.0284298739963</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F28" t="n">
-        <v>248.0385129538288</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G28" t="n">
-        <v>170.2750506853964</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H28" t="n">
-        <v>106.4167873534095</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I28" t="n">
         <v>71.101588215695</v>
       </c>
       <c r="J28" t="n">
-        <v>138.7485218715119</v>
+        <v>138.748521871511</v>
       </c>
       <c r="K28" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476432</v>
       </c>
       <c r="L28" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021215</v>
       </c>
       <c r="M28" t="n">
-        <v>873.7644385885116</v>
+        <v>873.764438588511</v>
       </c>
       <c r="N28" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O28" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P28" t="n">
         <v>1623.344941642819</v>
@@ -6412,7 +6412,7 @@
         <v>1551.552796903629</v>
       </c>
       <c r="T28" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U28" t="n">
         <v>1218.326354289324</v>
@@ -6421,13 +6421,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W28" t="n">
-        <v>856.0247572019623</v>
+        <v>856.024757201962</v>
       </c>
       <c r="X28" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816875</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.0426883159003</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="29">
@@ -6446,19 +6446,19 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E29" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352606</v>
       </c>
       <c r="F29" t="n">
-        <v>659.6936497233958</v>
+        <v>659.693649723396</v>
       </c>
       <c r="G29" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921546</v>
       </c>
       <c r="H29" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I29" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J29" t="n">
         <v>249.2363626397091</v>
@@ -6488,7 +6488,7 @@
         <v>3555.07941078475</v>
       </c>
       <c r="S29" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T29" t="n">
         <v>3362.433995982161</v>
@@ -6543,22 +6543,22 @@
         <v>71.10158821569499</v>
       </c>
       <c r="K30" t="n">
-        <v>389.8361585289043</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="L30" t="n">
-        <v>879.8185188908891</v>
+        <v>561.0839485776797</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.584044098751</v>
+        <v>1184.849473785542</v>
       </c>
       <c r="N30" t="n">
-        <v>2159.565800074075</v>
+        <v>1529.37012942316</v>
       </c>
       <c r="O30" t="n">
-        <v>2662.220283762224</v>
+        <v>2063.049601451093</v>
       </c>
       <c r="P30" t="n">
-        <v>2662.220283762224</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q30" t="n">
         <v>2662.220283762224</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634042</v>
       </c>
       <c r="C31" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132402</v>
       </c>
       <c r="D31" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786474</v>
       </c>
       <c r="E31" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739972</v>
       </c>
       <c r="F31" t="n">
-        <v>248.0385129538293</v>
+        <v>248.0385129538298</v>
       </c>
       <c r="G31" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853974</v>
       </c>
       <c r="H31" t="n">
         <v>106.41678735341</v>
@@ -6625,46 +6625,46 @@
         <v>322.4370930476438</v>
       </c>
       <c r="L31" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M31" t="n">
-        <v>873.7644385885112</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N31" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O31" t="n">
         <v>1415.521203172265</v>
       </c>
       <c r="P31" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q31" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R31" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S31" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T31" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U31" t="n">
         <v>1218.326354289324</v>
       </c>
       <c r="V31" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W31" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019629</v>
       </c>
       <c r="X31" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816885</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159009</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6698,13 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J32" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K32" t="n">
         <v>636.9590170723837</v>
       </c>
       <c r="L32" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M32" t="n">
         <v>1780.224142393353</v>
@@ -6780,22 +6780,22 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K33" t="n">
-        <v>502.2386301474696</v>
+        <v>308.8616198920977</v>
       </c>
       <c r="L33" t="n">
-        <v>992.2209905094544</v>
+        <v>798.8439802540825</v>
       </c>
       <c r="M33" t="n">
-        <v>1472.559055758968</v>
+        <v>1067.65564476545</v>
       </c>
       <c r="N33" t="n">
-        <v>2128.540811734291</v>
+        <v>1723.637400740774</v>
       </c>
       <c r="O33" t="n">
-        <v>2662.220283762224</v>
+        <v>2257.316872768706</v>
       </c>
       <c r="P33" t="n">
-        <v>2662.220283762224</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q33" t="n">
         <v>2662.220283762224</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.2942540634033</v>
+        <v>498.2942540634032</v>
       </c>
       <c r="C34" t="n">
-        <v>420.2581017132393</v>
+        <v>420.2581017132392</v>
       </c>
       <c r="D34" t="n">
-        <v>361.0414928786465</v>
+        <v>361.0414928786464</v>
       </c>
       <c r="E34" t="n">
-        <v>304.0284298739963</v>
+        <v>304.0284298739962</v>
       </c>
       <c r="F34" t="n">
-        <v>248.0385129538289</v>
+        <v>248.0385129538288</v>
       </c>
       <c r="G34" t="n">
-        <v>170.2750506853965</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H34" t="n">
-        <v>106.4167873534097</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I34" t="n">
         <v>71.10158821569499</v>
@@ -6859,10 +6859,10 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K34" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L34" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021215</v>
       </c>
       <c r="M34" t="n">
         <v>873.7644385885112</v>
@@ -6871,10 +6871,10 @@
         <v>1160.182765121765</v>
       </c>
       <c r="O34" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P34" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q34" t="n">
         <v>1711.205292109222</v>
@@ -6895,13 +6895,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W34" t="n">
-        <v>856.024757201962</v>
+        <v>856.0247572019618</v>
       </c>
       <c r="X34" t="n">
         <v>718.9352368816874</v>
       </c>
       <c r="Y34" t="n">
-        <v>589.0426883159001</v>
+        <v>589.0426883159</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E35" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F35" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G35" t="n">
         <v>333.3796118921542</v>
@@ -6935,13 +6935,13 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J35" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K35" t="n">
         <v>636.9590170723837</v>
       </c>
       <c r="L35" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M35" t="n">
         <v>1780.224142393353</v>
@@ -7014,25 +7014,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J36" t="n">
-        <v>183.5040598342603</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="K36" t="n">
-        <v>502.2386301474696</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="L36" t="n">
-        <v>992.2209905094544</v>
+        <v>561.0839485776797</v>
       </c>
       <c r="M36" t="n">
-        <v>1615.986515717317</v>
+        <v>1067.65564476545</v>
       </c>
       <c r="N36" t="n">
-        <v>2128.540811734291</v>
+        <v>1723.637400740774</v>
       </c>
       <c r="O36" t="n">
-        <v>2662.220283762224</v>
+        <v>2257.316872768706</v>
       </c>
       <c r="P36" t="n">
-        <v>2662.220283762224</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q36" t="n">
         <v>2662.220283762224</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.2942540634036</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C37" t="n">
-        <v>420.2581017132396</v>
+        <v>420.2581017132397</v>
       </c>
       <c r="D37" t="n">
-        <v>361.0414928786468</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E37" t="n">
         <v>304.0284298739966</v>
       </c>
       <c r="F37" t="n">
-        <v>248.0385129538291</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G37" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H37" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I37" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J37" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K37" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L37" t="n">
-        <v>588.1068164021219</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M37" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885111</v>
       </c>
       <c r="N37" t="n">
         <v>1160.182765121766</v>
@@ -7111,7 +7111,7 @@
         <v>1415.521203172265</v>
       </c>
       <c r="P37" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q37" t="n">
         <v>1711.205292109222</v>
@@ -7132,10 +7132,10 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W37" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X37" t="n">
-        <v>718.9352368816877</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y37" t="n">
         <v>589.0426883159005</v>
@@ -7157,13 +7157,13 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E38" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352605</v>
       </c>
       <c r="F38" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233959</v>
       </c>
       <c r="G38" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921544</v>
       </c>
       <c r="H38" t="n">
         <v>104.7631941350823</v>
@@ -7172,16 +7172,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J38" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K38" t="n">
         <v>636.9590170723837</v>
       </c>
       <c r="L38" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M38" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N38" t="n">
         <v>2385.446588068709</v>
@@ -7251,25 +7251,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J39" t="n">
-        <v>183.5040598342603</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="K39" t="n">
-        <v>502.2386301474696</v>
+        <v>196.4591482735324</v>
       </c>
       <c r="L39" t="n">
-        <v>992.2209905094544</v>
+        <v>500.1378964765325</v>
       </c>
       <c r="M39" t="n">
-        <v>1615.986515717317</v>
+        <v>1123.903421684395</v>
       </c>
       <c r="N39" t="n">
-        <v>2271.96827169264</v>
+        <v>1779.885177659718</v>
       </c>
       <c r="O39" t="n">
-        <v>2662.220283762224</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P39" t="n">
-        <v>2662.220283762224</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q39" t="n">
         <v>2662.220283762224</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.2942540634033</v>
+        <v>498.294254063404</v>
       </c>
       <c r="C40" t="n">
-        <v>420.2581017132393</v>
+        <v>420.25810171324</v>
       </c>
       <c r="D40" t="n">
-        <v>361.0414928786465</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E40" t="n">
-        <v>304.0284298739962</v>
+        <v>304.028429873997</v>
       </c>
       <c r="F40" t="n">
-        <v>248.0385129538288</v>
+        <v>248.0385129538295</v>
       </c>
       <c r="G40" t="n">
-        <v>170.2750506853963</v>
+        <v>170.2750506853971</v>
       </c>
       <c r="H40" t="n">
-        <v>106.4167873534095</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I40" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J40" t="n">
-        <v>138.7485218715117</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K40" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476435</v>
       </c>
       <c r="L40" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021218</v>
       </c>
       <c r="M40" t="n">
         <v>873.7644385885112</v>
@@ -7369,13 +7369,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W40" t="n">
-        <v>856.0247572019618</v>
+        <v>856.0247572019626</v>
       </c>
       <c r="X40" t="n">
-        <v>718.9352368816874</v>
+        <v>718.9352368816883</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.0426883159001</v>
+        <v>589.0426883159007</v>
       </c>
     </row>
     <row r="41">
@@ -7409,16 +7409,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J41" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K41" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L41" t="n">
         <v>1170.239882220686</v>
       </c>
       <c r="M41" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N41" t="n">
         <v>2385.446588068709</v>
@@ -7433,7 +7433,7 @@
         <v>3555.079410784749</v>
       </c>
       <c r="R41" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S41" t="n">
         <v>3486.886646926997</v>
@@ -7488,25 +7488,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J42" t="n">
-        <v>183.5040598342603</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="K42" t="n">
-        <v>502.2386301474696</v>
+        <v>106.7731340624404</v>
       </c>
       <c r="L42" t="n">
-        <v>992.2209905094544</v>
+        <v>596.7554944244251</v>
       </c>
       <c r="M42" t="n">
-        <v>1615.986515717317</v>
+        <v>1220.521019632287</v>
       </c>
       <c r="N42" t="n">
-        <v>2271.96827169264</v>
+        <v>1876.502775607611</v>
       </c>
       <c r="O42" t="n">
-        <v>2662.220283762224</v>
+        <v>2410.182247635543</v>
       </c>
       <c r="P42" t="n">
-        <v>2662.220283762224</v>
+        <v>2592.825725248894</v>
       </c>
       <c r="Q42" t="n">
         <v>2662.220283762224</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>498.2942540634041</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C43" t="n">
-        <v>420.2581017132401</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D43" t="n">
-        <v>361.0414928786472</v>
+        <v>361.0414928786466</v>
       </c>
       <c r="E43" t="n">
-        <v>304.028429873997</v>
+        <v>304.0284298739964</v>
       </c>
       <c r="F43" t="n">
-        <v>248.0385129538295</v>
+        <v>248.0385129538289</v>
       </c>
       <c r="G43" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853967</v>
       </c>
       <c r="H43" t="n">
-        <v>106.4167873534101</v>
+        <v>106.4167873534099</v>
       </c>
       <c r="I43" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J43" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K43" t="n">
         <v>322.4370930476437</v>
@@ -7576,25 +7576,25 @@
         <v>588.1068164021219</v>
       </c>
       <c r="M43" t="n">
-        <v>873.7644385885118</v>
+        <v>873.7644385885113</v>
       </c>
       <c r="N43" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O43" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P43" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q43" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R43" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S43" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T43" t="n">
         <v>1416.581590016168</v>
@@ -7606,13 +7606,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W43" t="n">
-        <v>856.0247572019624</v>
+        <v>856.024757201962</v>
       </c>
       <c r="X43" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816875</v>
       </c>
       <c r="Y43" t="n">
-        <v>589.0426883159009</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D44" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E44" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F44" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G44" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H44" t="n">
         <v>104.7631941350823</v>
@@ -7646,10 +7646,10 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J44" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397093</v>
       </c>
       <c r="K44" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723839</v>
       </c>
       <c r="L44" t="n">
         <v>1170.239882220687</v>
@@ -7658,7 +7658,7 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N44" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O44" t="n">
         <v>2911.753343601288</v>
@@ -7682,13 +7682,13 @@
         <v>3199.632220373422</v>
       </c>
       <c r="V44" t="n">
-        <v>2959.469363607593</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X44" t="n">
-        <v>2415.035011231885</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y44" t="n">
         <v>2115.795709833817</v>
@@ -7713,7 +7713,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F45" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G45" t="n">
         <v>220.9013999505779</v>
@@ -7728,22 +7728,22 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K45" t="n">
-        <v>502.2386301474696</v>
+        <v>308.8616198920977</v>
       </c>
       <c r="L45" t="n">
-        <v>992.2209905094544</v>
+        <v>368.0772133993994</v>
       </c>
       <c r="M45" t="n">
-        <v>1615.986515717317</v>
+        <v>991.8427386072616</v>
       </c>
       <c r="N45" t="n">
-        <v>2271.96827169264</v>
+        <v>1647.824494582585</v>
       </c>
       <c r="O45" t="n">
-        <v>2662.220283762224</v>
+        <v>2181.503966610518</v>
       </c>
       <c r="P45" t="n">
-        <v>2662.220283762224</v>
+        <v>2592.825725248894</v>
       </c>
       <c r="Q45" t="n">
         <v>2662.220283762224</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>498.2942540634044</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C46" t="n">
-        <v>420.2581017132404</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D46" t="n">
-        <v>361.0414928786475</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E46" t="n">
-        <v>304.0284298739974</v>
+        <v>304.0284298739965</v>
       </c>
       <c r="F46" t="n">
-        <v>248.0385129538299</v>
+        <v>248.038512953829</v>
       </c>
       <c r="G46" t="n">
-        <v>170.2750506853971</v>
+        <v>170.2750506853965</v>
       </c>
       <c r="H46" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I46" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J46" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K46" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L46" t="n">
         <v>588.1068164021221</v>
       </c>
       <c r="M46" t="n">
-        <v>873.7644385885119</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N46" t="n">
         <v>1160.182765121766</v>
@@ -7825,31 +7825,31 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q46" t="n">
-        <v>1711.205292109223</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R46" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S46" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T46" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U46" t="n">
-        <v>1218.326354289325</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V46" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W46" t="n">
-        <v>856.0247572019629</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X46" t="n">
-        <v>718.9352368816884</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y46" t="n">
-        <v>589.0426883159012</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>386.6967662831607</v>
       </c>
       <c r="N3" t="n">
-        <v>310.4744183678155</v>
+        <v>251.6760907241714</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>387.1589768055869</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,16 +8298,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>405.3760678736849</v>
       </c>
       <c r="N6" t="n">
-        <v>304.9839740156629</v>
+        <v>394.5837460349999</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>261.4654830815651</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>457.0835731213465</v>
       </c>
       <c r="N9" t="n">
-        <v>446.2912512826621</v>
+        <v>446.2912512826615</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>146.2764504988183</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>469.9964439453826</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>413.6609677718848</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>173.873303466021</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>198.3681105953304</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>144.823098540219</v>
       </c>
       <c r="D11" t="n">
-        <v>346.8295166657282</v>
+        <v>346.8295166657284</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>399.0225207867569</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>149.6483415361852</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>205.3456297523988</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>341.3874437624583</v>
+        <v>341.3874437624585</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.8516480383917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>171.9784552269828</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>159.3932961436733</v>
       </c>
       <c r="D13" t="n">
-        <v>140.7619480632576</v>
+        <v>140.7619480632578</v>
       </c>
       <c r="E13" t="n">
-        <v>138.5804376916145</v>
+        <v>138.5804376916146</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>137.5675230679767</v>
       </c>
       <c r="G13" t="n">
-        <v>159.1233329627589</v>
+        <v>159.123332962759</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.3571860156779</v>
       </c>
       <c r="I13" t="n">
-        <v>117.0995524633486</v>
+        <v>117.0995524633488</v>
       </c>
       <c r="J13" t="n">
-        <v>13.80726930103414</v>
+        <v>13.80726930103428</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>123.8412787319817</v>
+        <v>123.8412787319819</v>
       </c>
       <c r="S13" t="n">
-        <v>198.4897021555766</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>215.7590001355974</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>278.4101886865864</v>
+        <v>222.4010629213542</v>
       </c>
       <c r="V13" t="n">
-        <v>244.2841183688733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>278.6694733816363</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>217.8561304340826</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.67229947861507</v>
+        <v>210.7311283971403</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>105.4623319281695</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>377.5319205135139</v>
       </c>
       <c r="H14" t="n">
-        <v>259.4779342332666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>87.80601292077831</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>177.6891474959729</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>292.2422512587543</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>334.2210934670883</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.3219729705567</v>
+        <v>144.3219729705566</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>131.7368138872472</v>
       </c>
       <c r="D16" t="n">
         <v>113.1054658068317</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.9239554351885</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>109.9110408115506</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>131.4668507063329</v>
       </c>
       <c r="H16" t="n">
         <v>117.7007037592518</v>
       </c>
       <c r="I16" t="n">
-        <v>89.44307020692271</v>
+        <v>89.44307020692267</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>13.01075325675556</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>170.8332198991507</v>
+        <v>99.24830987369728</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.7537064301605</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>216.6276361124474</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>251.0129911252103</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>183.0746461407142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.004263632321431e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982122</v>
+      </c>
+      <c r="D2" t="n">
         <v>61578.13273982125</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61578.13273982127</v>
       </c>
       <c r="E2" t="n">
         <v>50697.42165612528</v>
       </c>
       <c r="F2" t="n">
-        <v>54361.38901049693</v>
+        <v>54361.38901049698</v>
       </c>
       <c r="G2" t="n">
         <v>61578.1327398213</v>
@@ -26335,25 +26335,25 @@
         <v>61578.1327398213</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982133</v>
+        <v>61578.13273982131</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982133</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982131</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982133</v>
+        <v>61578.13273982129</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982132</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982128</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982128</v>
       </c>
     </row>
     <row r="3">
@@ -26366,46 +26366,46 @@
         <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>23645.34018189539</v>
+        <v>23645.34018189508</v>
       </c>
       <c r="D3" t="n">
-        <v>54944.83618830889</v>
+        <v>54944.83618830856</v>
       </c>
       <c r="E3" t="n">
-        <v>574462.7092651012</v>
+        <v>574462.7092651018</v>
       </c>
       <c r="F3" t="n">
-        <v>22125.18580514075</v>
+        <v>22125.1858051409</v>
       </c>
       <c r="G3" t="n">
-        <v>43584.81844846789</v>
+        <v>43584.81844846781</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>70271.1915098625</v>
+        <v>70271.1915098624</v>
       </c>
       <c r="K3" t="n">
-        <v>26932.64029689086</v>
+        <v>26932.64029689094</v>
       </c>
       <c r="L3" t="n">
-        <v>56671.52265910386</v>
+        <v>56671.52265910369</v>
       </c>
       <c r="M3" t="n">
-        <v>142998.3174046711</v>
+        <v>142998.3174046714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6282.819963963721</v>
+        <v>6282.819963963607</v>
       </c>
       <c r="P3" t="n">
-        <v>22125.1858051408</v>
+        <v>22125.18580514089</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>277804.1398925067</v>
       </c>
       <c r="C4" t="n">
-        <v>270946.5259153378</v>
+        <v>270946.5259153379</v>
       </c>
       <c r="D4" t="n">
-        <v>254144.832435582</v>
+        <v>254144.8324355822</v>
       </c>
       <c r="E4" t="n">
-        <v>8914.024090548983</v>
+        <v>8914.024090548832</v>
       </c>
       <c r="F4" t="n">
-        <v>36861.66690721027</v>
+        <v>36861.66690721031</v>
       </c>
       <c r="G4" t="n">
+        <v>91917.23178691894</v>
+      </c>
+      <c r="H4" t="n">
         <v>91917.231786919</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>91917.23178691897</v>
-      </c>
-      <c r="I4" t="n">
-        <v>91917.23178691899</v>
       </c>
       <c r="J4" t="n">
         <v>91917.23178691894</v>
       </c>
       <c r="K4" t="n">
-        <v>91917.23178691897</v>
+        <v>91917.23178691899</v>
       </c>
       <c r="L4" t="n">
-        <v>91917.23178691897</v>
+        <v>91917.231786919</v>
       </c>
       <c r="M4" t="n">
         <v>91917.23178691897</v>
       </c>
       <c r="N4" t="n">
-        <v>91917.23178691897</v>
+        <v>91917.231786919</v>
       </c>
       <c r="O4" t="n">
         <v>91917.23178691897</v>
       </c>
       <c r="P4" t="n">
-        <v>91917.23178691896</v>
+        <v>91917.23178691897</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>54267.98797258073</v>
+        <v>54267.98797258068</v>
       </c>
       <c r="E5" t="n">
         <v>66957.25132339295</v>
       </c>
       <c r="F5" t="n">
-        <v>69282.30413020842</v>
+        <v>69282.30413020843</v>
       </c>
       <c r="G5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788875</v>
       </c>
       <c r="H5" t="n">
         <v>73862.46925788873</v>
@@ -26522,46 +26522,46 @@
         <v>-350301.8900925246</v>
       </c>
       <c r="C6" t="n">
-        <v>-283148.1407642454</v>
+        <v>-283148.1407642451</v>
       </c>
       <c r="D6" t="n">
-        <v>-301779.5238566504</v>
+        <v>-301779.5238566502</v>
       </c>
       <c r="E6" t="n">
-        <v>-599636.563022918</v>
+        <v>-599999.2533923748</v>
       </c>
       <c r="F6" t="n">
-        <v>-73907.76783206251</v>
+        <v>-74148.32595637348</v>
       </c>
       <c r="G6" t="n">
-        <v>-147786.3867534543</v>
+        <v>-147786.3867534542</v>
       </c>
       <c r="H6" t="n">
-        <v>-104201.5683049864</v>
+        <v>-104201.5683049865</v>
       </c>
       <c r="I6" t="n">
         <v>-104201.5683049864</v>
       </c>
       <c r="J6" t="n">
-        <v>-174472.7598148489</v>
+        <v>-174472.7598148488</v>
       </c>
       <c r="K6" t="n">
-        <v>-131134.2086018772</v>
+        <v>-131134.2086018774</v>
       </c>
       <c r="L6" t="n">
-        <v>-160873.0909640903</v>
+        <v>-160873.0909640901</v>
       </c>
       <c r="M6" t="n">
-        <v>-247199.8857096575</v>
+        <v>-247199.8857096578</v>
       </c>
       <c r="N6" t="n">
-        <v>-104201.5683049864</v>
+        <v>-104201.5683049865</v>
       </c>
       <c r="O6" t="n">
-        <v>-110484.3882689501</v>
+        <v>-110484.38826895</v>
       </c>
       <c r="P6" t="n">
-        <v>-126326.7541101272</v>
+        <v>-126326.7541101273</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="F2" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="G2" t="n">
+        <v>89.99103027196543</v>
+      </c>
+      <c r="H2" t="n">
         <v>89.99103027196549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>89.99103027196547</v>
       </c>
       <c r="I2" t="n">
         <v>89.99103027196547</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="L2" t="n">
         <v>89.99103027196547</v>
       </c>
       <c r="M2" t="n">
+        <v>89.99103027196547</v>
+      </c>
+      <c r="N2" t="n">
+        <v>89.9910302719655</v>
+      </c>
+      <c r="O2" t="n">
         <v>89.99103027196546</v>
       </c>
-      <c r="N2" t="n">
-        <v>89.99103027196546</v>
-      </c>
-      <c r="O2" t="n">
-        <v>89.99103027196544</v>
-      </c>
       <c r="P2" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="3">
@@ -26738,19 +26738,19 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>68.41541235144676</v>
+        <v>68.41541235144622</v>
       </c>
       <c r="E3" t="n">
         <v>562.3764353223249</v>
       </c>
       <c r="F3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223249</v>
       </c>
       <c r="G3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223251</v>
       </c>
       <c r="H3" t="n">
         <v>562.3764353223249</v>
@@ -26777,7 +26777,7 @@
         <v>562.3764353223249</v>
       </c>
       <c r="P3" t="n">
-        <v>562.3764353223249</v>
+        <v>562.3764353223251</v>
       </c>
     </row>
     <row r="4">
@@ -26790,22 +26790,22 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>314.9495391993288</v>
+        <v>314.9495391993282</v>
       </c>
       <c r="E4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961875</v>
       </c>
       <c r="F4" t="n">
         <v>888.7698526961873</v>
       </c>
       <c r="G4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961875</v>
       </c>
       <c r="H4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="I4" t="n">
         <v>888.7698526961873</v>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="F2" t="n">
-        <v>27.65648225642594</v>
+        <v>27.65648225642612</v>
       </c>
       <c r="G2" t="n">
-        <v>54.48102306058485</v>
+        <v>54.48102306058475</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.853524954954666</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="K2" t="n">
-        <v>27.65648225642595</v>
+        <v>27.65648225642614</v>
       </c>
       <c r="L2" t="n">
-        <v>54.48102306058487</v>
+        <v>54.48102306058474</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.853524954954652</v>
+        <v>7.853524954954509</v>
       </c>
       <c r="P2" t="n">
-        <v>27.656482256426</v>
+        <v>27.65648225642611</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3395197935473</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="D3" t="n">
-        <v>45.40202966465714</v>
+        <v>45.40202966465684</v>
       </c>
       <c r="E3" t="n">
-        <v>493.9610229708782</v>
+        <v>493.9610229708787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>18.67930159052446</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="D4" t="n">
-        <v>51.70750524766189</v>
+        <v>51.70750524766164</v>
       </c>
       <c r="E4" t="n">
-        <v>573.8203134968585</v>
+        <v>573.8203134968593</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052446</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>51.70750524766178</v>
+        <v>51.70750524766153</v>
       </c>
       <c r="M4" t="n">
-        <v>573.8203134968585</v>
+        <v>573.8203134968593</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="K2" t="n">
-        <v>27.65648225642594</v>
+        <v>27.65648225642612</v>
       </c>
       <c r="L2" t="n">
-        <v>54.48102306058485</v>
+        <v>54.48102306058475</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.853524954954666</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="P2" t="n">
-        <v>27.65648225642595</v>
+        <v>27.65648225642614</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052446</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>51.70750524766189</v>
+        <v>51.70750524766164</v>
       </c>
       <c r="M4" t="n">
-        <v>573.8203134968585</v>
+        <v>573.8203134968593</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,28 +27379,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>120.7101594098651</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>110.1203092595405</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>225.8447041165159</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>124.5451699377824</v>
       </c>
       <c r="I2" t="n">
         <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
         <v>148.9413660216818</v>
@@ -27430,19 +27430,19 @@
         <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>83.18952610899248</v>
       </c>
       <c r="W2" t="n">
-        <v>104.6782363562706</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>125.1683683173266</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.61684948993636</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
         <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1328769967189</v>
@@ -27515,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777182</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>56.26870892497027</v>
       </c>
     </row>
     <row r="4">
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>176.9955073465141</v>
+        <v>39.91394168141611</v>
       </c>
       <c r="S4" t="n">
         <v>223.9011423785076</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>176.1555569395703</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,28 +27616,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F5" t="n">
-        <v>143.6340117900446</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>151.9681874521645</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5273214908784</v>
+        <v>116.8462227990588</v>
       </c>
       <c r="I5" t="n">
         <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852072</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
@@ -27670,10 +27670,10 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>163.5322708787743</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.51022451846802</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>77.89617686946545</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>25.63595207263882</v>
       </c>
       <c r="G6" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828962</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9381254702172</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598916</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>15.59235192972142</v>
       </c>
       <c r="S7" t="n">
-        <v>63.45830508392203</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
         <v>227.7682732010226</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>66.98083087293298</v>
+        <v>126.4265623687665</v>
       </c>
       <c r="F8" t="n">
-        <v>129.4684916149428</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>100.0781614822326</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6580811439309</v>
+        <v>336.658081143931</v>
       </c>
       <c r="I8" t="n">
         <v>199.8725320440576</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.5923354441786</v>
+        <v>132.5923354441787</v>
       </c>
       <c r="S8" t="n">
         <v>202.7526677411857</v>
@@ -27910,16 +27910,16 @@
         <v>251.3236499611506</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>12.80271927080668</v>
       </c>
       <c r="W8" t="n">
-        <v>34.29142951808421</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>54.78156147914081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>71.28839945672536</v>
       </c>
     </row>
     <row r="9">
@@ -27935,13 +27935,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.1963594838132</v>
@@ -27950,7 +27950,7 @@
         <v>110.8142108591579</v>
       </c>
       <c r="I9" t="n">
-        <v>84.33001976689755</v>
+        <v>84.33001976689759</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>78.73522317326021</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.5715799783029</v>
+        <v>68.04078462461644</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9317006546987</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28029,13 +28029,13 @@
         <v>161.1302827815426</v>
       </c>
       <c r="I10" t="n">
-        <v>151.7403407623634</v>
+        <v>151.7403407623635</v>
       </c>
       <c r="J10" t="n">
-        <v>84.63677582393177</v>
+        <v>84.63677582393184</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>7.935902156186419</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.83131598662592</v>
+        <v>75.83131598662601</v>
       </c>
       <c r="R10" t="n">
-        <v>171.7461351560177</v>
+        <v>171.7461351560178</v>
       </c>
       <c r="S10" t="n">
-        <v>12.1324352926556</v>
+        <v>221.8665595865178</v>
       </c>
       <c r="T10" t="n">
         <v>227.4184542839343</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0.9146269020469617</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="C11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="D11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="E11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="F11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="G11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="H11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="I11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="S11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="T11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="U11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="V11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="W11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="X11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="C13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="D13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="E13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="F13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="G13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="H13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="I13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="J13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="K13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="L13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="M13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="N13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="O13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="P13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="R13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="S13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="T13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="U13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="V13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="W13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="X13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.853524954954694</v>
+        <v>7.853524954954551</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="C14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="D14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="E14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="F14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="G14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="H14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="I14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954707</v>
       </c>
       <c r="S14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="T14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="U14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="V14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="W14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="X14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="Y14" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="C16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="D16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="E16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="F16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="G16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="H16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="I16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="J16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="K16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="L16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="M16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="N16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="O16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="P16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="R16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="S16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="T16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="U16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="V16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="W16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="X16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
       <c r="Y16" t="n">
-        <v>35.51000721138063</v>
+        <v>35.51000721138067</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954679</v>
       </c>
       <c r="S17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="K19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="L19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="M19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="N19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="O19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="P19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="R19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="S19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="L22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="M22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="N22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="O22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="P22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="R22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="S22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="23">
@@ -29086,7 +29086,7 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S23" t="n">
-        <v>89.99103027196566</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T23" t="n">
         <v>89.99103027196547</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T26" t="n">
-        <v>89.991030271965</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196475</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="L31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="M31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="N31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="O31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="P31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="R31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="S31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196566</v>
       </c>
       <c r="T32" t="n">
         <v>89.99103027196547</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196526</v>
       </c>
       <c r="F35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S35" t="n">
-        <v>89.99103027196566</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196523</v>
       </c>
       <c r="I38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="R40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="C41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>7.853524954954707</v>
+        <v>7.853524954954679</v>
       </c>
       <c r="S44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196566</v>
       </c>
       <c r="T44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V44" t="n">
-        <v>89.99103027196463</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="K46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="L46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="M46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="N46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="O46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="P46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="R46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="S46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y46" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
   </sheetData>
@@ -31130,7 +31130,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -31148,7 +31148,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0.4906339916673424</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367679</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887802</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381035003</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760445</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324509</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841739</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544934</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679593</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318454</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294142</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104788</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125458</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J6" t="n">
-        <v>4.67671015524656</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -31382,22 +31382,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605604</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S6" t="n">
-        <v>0.919449770552396</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467892</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994849</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259059</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166742</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471434</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988743</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815848031</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150904</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P7" t="n">
-        <v>5.01918103713195</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750111</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815375</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2750368335736551</v>
+        <v>0.2750368335736529</v>
       </c>
       <c r="H8" t="n">
-        <v>2.816720971836196</v>
+        <v>2.816720971836174</v>
       </c>
       <c r="I8" t="n">
-        <v>10.60335752634835</v>
+        <v>10.60335752634827</v>
       </c>
       <c r="J8" t="n">
-        <v>23.34340745352203</v>
+        <v>23.34340745352185</v>
       </c>
       <c r="K8" t="n">
-        <v>34.98571661869486</v>
+        <v>34.98571661869458</v>
       </c>
       <c r="L8" t="n">
-        <v>43.40287511417462</v>
+        <v>43.40287511417427</v>
       </c>
       <c r="M8" t="n">
-        <v>48.2940614032401</v>
+        <v>48.29406140323972</v>
       </c>
       <c r="N8" t="n">
-        <v>49.07550980663125</v>
+        <v>49.07550980663087</v>
       </c>
       <c r="O8" t="n">
-        <v>46.34061229278322</v>
+        <v>46.34061229278285</v>
       </c>
       <c r="P8" t="n">
-        <v>39.5506404639336</v>
+        <v>39.55064046393329</v>
       </c>
       <c r="Q8" t="n">
-        <v>29.70088386157707</v>
+        <v>29.70088386157683</v>
       </c>
       <c r="R8" t="n">
-        <v>17.27678249697113</v>
+        <v>17.27678249697099</v>
       </c>
       <c r="S8" t="n">
-        <v>6.267401845059672</v>
+        <v>6.267401845059623</v>
       </c>
       <c r="T8" t="n">
-        <v>1.203973738968676</v>
+        <v>1.203973738968666</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0220029466858924</v>
+        <v>0.02200294668589223</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1471576793974515</v>
+        <v>0.1471576793974504</v>
       </c>
       <c r="H9" t="n">
-        <v>1.421233377338545</v>
+        <v>1.421233377338534</v>
       </c>
       <c r="I9" t="n">
-        <v>5.06661308451752</v>
+        <v>5.06661308451748</v>
       </c>
       <c r="J9" t="n">
-        <v>12.39558981369935</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>23.76273808059637</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>31.95193385338087</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -31625,16 +31625,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>9.136684691010196</v>
+        <v>9.136684691010124</v>
       </c>
       <c r="S9" t="n">
-        <v>2.733389351965819</v>
+        <v>2.733389351965798</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5931487165186751</v>
+        <v>0.5931487165186703</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00968142627614813</v>
+        <v>0.009681426276148054</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.123372055059986</v>
+        <v>0.123372055059985</v>
       </c>
       <c r="H10" t="n">
-        <v>1.096889725896967</v>
+        <v>1.096889725896958</v>
       </c>
       <c r="I10" t="n">
-        <v>3.710134164894851</v>
+        <v>3.710134164894822</v>
       </c>
       <c r="J10" t="n">
-        <v>8.722404292741006</v>
+        <v>8.722404292740936</v>
       </c>
       <c r="K10" t="n">
-        <v>14.33358966969655</v>
+        <v>14.33358966969643</v>
       </c>
       <c r="L10" t="n">
-        <v>18.34205989500919</v>
+        <v>18.34205989500904</v>
       </c>
       <c r="M10" t="n">
-        <v>19.33913041272125</v>
+        <v>19.3391304127211</v>
       </c>
       <c r="N10" t="n">
-        <v>18.87928911658859</v>
+        <v>18.87928911658844</v>
       </c>
       <c r="O10" t="n">
-        <v>17.43807920066057</v>
+        <v>17.43807920066043</v>
       </c>
       <c r="P10" t="n">
-        <v>14.92128927743684</v>
+        <v>14.92128927743672</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.33072726506846</v>
+        <v>10.33072726506838</v>
       </c>
       <c r="R10" t="n">
-        <v>5.547256221151731</v>
+        <v>5.547256221151687</v>
       </c>
       <c r="S10" t="n">
-        <v>2.150038450454482</v>
+        <v>2.150038450454465</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5271351443472125</v>
+        <v>0.5271351443472084</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006729384821453787</v>
+        <v>0.006729384821453734</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>41.64768884226653</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2844414460208</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>195.3303133892645</v>
       </c>
       <c r="L12" t="n">
-        <v>262.645711609733</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N12" t="n">
-        <v>124.0486989726705</v>
+        <v>291.3306367321991</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P12" t="n">
-        <v>230.9881626515414</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>154.4094695624618</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>75.1037813058758</v>
@@ -31987,25 +31987,25 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H14" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I14" t="n">
-        <v>87.15986943824696</v>
+        <v>87.15986943824699</v>
       </c>
       <c r="J14" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K14" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553053</v>
       </c>
       <c r="L14" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733781</v>
       </c>
       <c r="M14" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805676</v>
       </c>
       <c r="N14" t="n">
         <v>403.4019428970884</v>
@@ -32014,19 +32014,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P14" t="n">
-        <v>325.1072738488219</v>
+        <v>325.107273848822</v>
       </c>
       <c r="Q14" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R14" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S14" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510546</v>
       </c>
       <c r="T14" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777795</v>
       </c>
       <c r="U14" t="n">
         <v>0.18086478321924</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H15" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I15" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J15" t="n">
         <v>114.2844414460208</v>
@@ -32081,34 +32081,34 @@
         <v>195.3303133892645</v>
       </c>
       <c r="L15" t="n">
-        <v>262.645711609733</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>98.8903116491004</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>124.0486989726707</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P15" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q15" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R15" t="n">
-        <v>75.10378130587578</v>
+        <v>75.1037813058758</v>
       </c>
       <c r="S15" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T15" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483174</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617809</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H16" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807117</v>
       </c>
       <c r="I16" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J16" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068394</v>
       </c>
       <c r="K16" t="n">
         <v>117.8224728429395</v>
@@ -32175,19 +32175,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367106</v>
       </c>
       <c r="R16" t="n">
-        <v>45.59858769023307</v>
+        <v>45.59858769023308</v>
       </c>
       <c r="S16" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T16" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729387</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973694</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H17" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430054</v>
       </c>
       <c r="I17" t="n">
-        <v>87.15986943824696</v>
+        <v>87.159869438247</v>
       </c>
       <c r="J17" t="n">
-        <v>191.8834049344248</v>
+        <v>191.8834049344249</v>
       </c>
       <c r="K17" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553054</v>
       </c>
       <c r="L17" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733782</v>
       </c>
       <c r="M17" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805677</v>
       </c>
       <c r="N17" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970885</v>
       </c>
       <c r="O17" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453845</v>
       </c>
       <c r="P17" t="n">
-        <v>325.1072738488219</v>
+        <v>325.1072738488221</v>
       </c>
       <c r="Q17" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358341</v>
       </c>
       <c r="R17" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S17" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510547</v>
       </c>
       <c r="T17" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777799</v>
       </c>
       <c r="U17" t="n">
         <v>0.18086478321924</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H18" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I18" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K18" t="n">
         <v>195.3303133892645</v>
@@ -32321,31 +32321,31 @@
         <v>262.645711609733</v>
       </c>
       <c r="M18" t="n">
-        <v>237.5865490924336</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>287.8040989333035</v>
       </c>
       <c r="P18" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q18" t="n">
-        <v>154.4094695624617</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>75.10378130587578</v>
+        <v>75.10378130587581</v>
       </c>
       <c r="S18" t="n">
-        <v>22.46853022254759</v>
+        <v>22.4685302225476</v>
       </c>
       <c r="T18" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483175</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617811</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,19 +32385,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H19" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807119</v>
       </c>
       <c r="I19" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J19" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068396</v>
       </c>
       <c r="K19" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L19" t="n">
-        <v>150.7722003813328</v>
+        <v>150.7722003813329</v>
       </c>
       <c r="M19" t="n">
         <v>158.9681454797188</v>
@@ -32412,19 +32412,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367109</v>
       </c>
       <c r="R19" t="n">
-        <v>45.59858769023307</v>
+        <v>45.5985876902331</v>
       </c>
       <c r="S19" t="n">
-        <v>17.67337092644092</v>
+        <v>17.67337092644093</v>
       </c>
       <c r="T19" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729388</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973695</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,19 +32558,19 @@
         <v>262.645711609733</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N21" t="n">
-        <v>60.74958325165613</v>
+        <v>48.54170437354458</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8040989333034</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>230.9881626515414</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R21" t="n">
         <v>75.1037813058758</v>
@@ -32789,25 +32789,25 @@
         <v>114.2844414460208</v>
       </c>
       <c r="K24" t="n">
-        <v>195.3303133892645</v>
+        <v>191.910557314254</v>
       </c>
       <c r="L24" t="n">
-        <v>262.645711609733</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N24" t="n">
-        <v>60.74958325165613</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8040989333034</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>230.9881626515414</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R24" t="n">
         <v>75.1037813058758</v>
@@ -33029,22 +33029,22 @@
         <v>195.3303133892645</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M27" t="n">
-        <v>98.8903116491004</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8040989333034</v>
+        <v>278.4581685351325</v>
       </c>
       <c r="P27" t="n">
         <v>230.9881626515414</v>
       </c>
       <c r="Q27" t="n">
-        <v>154.4094695624618</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>75.1037813058758</v>
@@ -33263,7 +33263,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>195.3303133892645</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>262.645711609733</v>
@@ -33272,16 +33272,16 @@
         <v>306.495157250667</v>
       </c>
       <c r="N30" t="n">
-        <v>314.6071720582882</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.4657268729159</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>196.2295669874885</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R30" t="n">
         <v>75.1037813058758</v>
@@ -33500,13 +33500,13 @@
         <v>114.2844414460208</v>
       </c>
       <c r="K33" t="n">
-        <v>195.3303133892645</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>262.645711609733</v>
       </c>
       <c r="M33" t="n">
-        <v>161.6189350705166</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>314.6071720582882</v>
@@ -33518,7 +33518,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R33" t="n">
         <v>75.1037813058758</v>
@@ -33734,19 +33734,19 @@
         <v>41.64768884226653</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2844414460208</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>195.3303133892645</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>262.645711609733</v>
       </c>
       <c r="M36" t="n">
-        <v>306.495157250667</v>
+        <v>188.1175521798674</v>
       </c>
       <c r="N36" t="n">
-        <v>169.7309498781375</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O36" t="n">
         <v>287.8040989333034</v>
@@ -33755,7 +33755,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R36" t="n">
         <v>75.1037813058758</v>
@@ -33913,7 +33913,7 @@
         <v>325.107273848822</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358338</v>
       </c>
       <c r="R38" t="n">
         <v>142.015592986195</v>
@@ -33971,13 +33971,13 @@
         <v>41.64768884226653</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2844414460208</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>195.3303133892645</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>262.645711609733</v>
+        <v>74.4602447824758</v>
       </c>
       <c r="M39" t="n">
         <v>306.495157250667</v>
@@ -33986,13 +33986,13 @@
         <v>314.6071720582882</v>
       </c>
       <c r="O39" t="n">
-        <v>142.9278767531528</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R39" t="n">
         <v>75.1037813058758</v>
@@ -34208,10 +34208,10 @@
         <v>41.64768884226653</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2844414460208</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>195.3303133892645</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>262.645711609733</v>
@@ -34223,7 +34223,7 @@
         <v>314.6071720582882</v>
       </c>
       <c r="O42" t="n">
-        <v>142.9278767531528</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34360,43 +34360,43 @@
         <v>2.260809790240501</v>
       </c>
       <c r="H44" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430054</v>
       </c>
       <c r="I44" t="n">
-        <v>87.15986943824699</v>
+        <v>87.159869438247</v>
       </c>
       <c r="J44" t="n">
-        <v>191.8834049344248</v>
+        <v>191.8834049344249</v>
       </c>
       <c r="K44" t="n">
-        <v>287.5834833553053</v>
+        <v>287.5834833553054</v>
       </c>
       <c r="L44" t="n">
-        <v>356.7727409733781</v>
+        <v>356.7727409733782</v>
       </c>
       <c r="M44" t="n">
-        <v>396.9784170805676</v>
+        <v>396.9784170805677</v>
       </c>
       <c r="N44" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970885</v>
       </c>
       <c r="O44" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453837</v>
       </c>
       <c r="P44" t="n">
-        <v>325.107273848822</v>
+        <v>325.1072738488221</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358341</v>
       </c>
       <c r="R44" t="n">
         <v>142.015592986195</v>
       </c>
       <c r="S44" t="n">
-        <v>51.51820309510546</v>
+        <v>51.51820309510547</v>
       </c>
       <c r="T44" t="n">
-        <v>9.896694856777795</v>
+        <v>9.896694856777799</v>
       </c>
       <c r="U44" t="n">
         <v>0.18086478321924</v>
@@ -34448,37 +34448,37 @@
         <v>114.2844414460208</v>
       </c>
       <c r="K45" t="n">
-        <v>195.3303133892645</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>262.645711609733</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506671</v>
       </c>
       <c r="N45" t="n">
-        <v>314.6071720582882</v>
+        <v>314.6071720582883</v>
       </c>
       <c r="O45" t="n">
-        <v>142.9278767531528</v>
+        <v>287.8040989333035</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>75.1037813058758</v>
+        <v>75.10378130587581</v>
       </c>
       <c r="S45" t="n">
-        <v>22.46853022254759</v>
+        <v>22.4685302225476</v>
       </c>
       <c r="T45" t="n">
-        <v>4.875697585483174</v>
+        <v>4.875697585483175</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07958157103617809</v>
+        <v>0.07958157103617811</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,19 +34518,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H46" t="n">
-        <v>9.016461536807117</v>
+        <v>9.016461536807119</v>
       </c>
       <c r="I46" t="n">
         <v>30.49739750895494</v>
       </c>
       <c r="J46" t="n">
-        <v>71.69838586068394</v>
+        <v>71.69838586068396</v>
       </c>
       <c r="K46" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L46" t="n">
-        <v>150.7722003813328</v>
+        <v>150.7722003813329</v>
       </c>
       <c r="M46" t="n">
         <v>158.9681454797188</v>
@@ -34545,19 +34545,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.91884173367106</v>
+        <v>84.91884173367109</v>
       </c>
       <c r="R46" t="n">
-        <v>45.59858769023308</v>
+        <v>45.5985876902331</v>
       </c>
       <c r="S46" t="n">
-        <v>17.67337092644092</v>
+        <v>17.67337092644093</v>
       </c>
       <c r="T46" t="n">
-        <v>4.333064337729387</v>
+        <v>4.333064337729388</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05531571494973694</v>
+        <v>0.05531571494973695</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>127.8998415301111</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,13 +34787,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>179.1327062844822</v>
+        <v>120.3343786408381</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P5" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988703</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>173.6422619323295</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
-        <v>251.2660748322851</v>
+        <v>118.8692386371206</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025438</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.39411809890952</v>
+        <v>11.39411809890933</v>
       </c>
       <c r="K8" t="n">
-        <v>139.041278144879</v>
+        <v>139.0412781448788</v>
       </c>
       <c r="L8" t="n">
-        <v>225.2976746946378</v>
+        <v>225.2976746946375</v>
       </c>
       <c r="M8" t="n">
-        <v>267.4613616687998</v>
+        <v>267.4613616687995</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0093706220245</v>
+        <v>257.0093706220241</v>
       </c>
       <c r="O8" t="n">
-        <v>197.0425821338418</v>
+        <v>197.0425821338415</v>
       </c>
       <c r="P8" t="n">
-        <v>130.1163528801467</v>
+        <v>130.1163528801464</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.71018464703226</v>
+        <v>19.71018464703203</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.64899848744149</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>150.386536118816</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>264.2378993769659</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>314.9495391993282</v>
       </c>
       <c r="N9" t="n">
-        <v>314.9495391993288</v>
+        <v>314.9495391993282</v>
       </c>
       <c r="O9" t="n">
-        <v>251.2660748322851</v>
+        <v>3.680206054373873</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>45.93208515532532</v>
+        <v>45.93208515532518</v>
       </c>
       <c r="M10" t="n">
-        <v>58.92300737456183</v>
+        <v>58.92300737456168</v>
       </c>
       <c r="N10" t="n">
-        <v>63.01146149581719</v>
+        <v>63.01146149581703</v>
       </c>
       <c r="O10" t="n">
-        <v>42.02320711470024</v>
+        <v>42.0232071147001</v>
       </c>
       <c r="P10" t="n">
-        <v>12.19984854233033</v>
+        <v>12.19984854233021</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>321.9541114274841</v>
       </c>
       <c r="L12" t="n">
-        <v>494.931677133318</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N12" t="n">
-        <v>472.0493612328908</v>
+        <v>639.3312989924193</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P12" t="n">
-        <v>415.4765238771483</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.5049832122893</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>103.4065059720114</v>
+        <v>103.4065059720112</v>
       </c>
       <c r="L13" t="n">
-        <v>186.2157505966037</v>
+        <v>186.2157505966035</v>
       </c>
       <c r="M13" t="n">
-        <v>206.4055473965141</v>
+        <v>206.405547396514</v>
       </c>
       <c r="N13" t="n">
-        <v>207.1739356256702</v>
+        <v>207.17393562567</v>
       </c>
       <c r="O13" t="n">
-        <v>175.7801088754126</v>
+        <v>175.7801088754125</v>
       </c>
       <c r="P13" t="n">
-        <v>127.7854628350647</v>
+        <v>127.7854628350645</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.610323436931368</v>
+        <v>6.610323436931225</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K14" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814895</v>
       </c>
       <c r="L14" t="n">
         <v>538.6675405538413</v>
@@ -35656,13 +35656,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N14" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O14" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P14" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650351</v>
       </c>
       <c r="Q14" t="n">
         <v>234.1513240212892</v>
@@ -35729,19 +35729,19 @@
         <v>321.9541114274841</v>
       </c>
       <c r="L15" t="n">
-        <v>494.931677133318</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>422.461341477082</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>375.3147738049558</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P15" t="n">
-        <v>415.4765238771482</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q15" t="n">
         <v>224.5049832122893</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>13.84921295539178</v>
+        <v>13.84921295539184</v>
       </c>
       <c r="K16" t="n">
         <v>131.0629882284373</v>
@@ -35811,19 +35811,19 @@
         <v>213.8722328530296</v>
       </c>
       <c r="M16" t="n">
-        <v>234.06202965294</v>
+        <v>234.0620296529401</v>
       </c>
       <c r="N16" t="n">
-        <v>234.8304178820961</v>
+        <v>234.8304178820962</v>
       </c>
       <c r="O16" t="n">
-        <v>203.4365911318385</v>
+        <v>203.4365911318386</v>
       </c>
       <c r="P16" t="n">
-        <v>155.4419450914906</v>
+        <v>155.4419450914907</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.26680569335729</v>
+        <v>34.26680569335735</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798124</v>
       </c>
       <c r="K17" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814896</v>
       </c>
       <c r="L17" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538414</v>
       </c>
       <c r="M17" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461274</v>
       </c>
       <c r="N17" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O17" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864431</v>
       </c>
       <c r="P17" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650352</v>
       </c>
       <c r="Q17" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>113.537850119763</v>
       </c>
       <c r="K18" t="n">
         <v>321.9541114274841</v>
@@ -35969,19 +35969,19 @@
         <v>494.931677133318</v>
       </c>
       <c r="M18" t="n">
-        <v>561.1575789204152</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>338.6547318620493</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>539.0701737655886</v>
       </c>
       <c r="P18" t="n">
-        <v>415.4765238771482</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.5049832122893</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K19" t="n">
         <v>185.5440112890221</v>
@@ -36060,7 +36060,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>494.931677133318</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N21" t="n">
-        <v>408.7502455118764</v>
+        <v>396.5423666337648</v>
       </c>
       <c r="O21" t="n">
-        <v>539.0701737655885</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>415.4765238771483</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K22" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L22" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M22" t="n">
         <v>288.5430527135248</v>
@@ -36297,7 +36297,7 @@
         <v>209.9229681520755</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K24" t="n">
-        <v>321.9541114274841</v>
+        <v>318.5343553524737</v>
       </c>
       <c r="L24" t="n">
-        <v>494.931677133318</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N24" t="n">
-        <v>408.7502455118764</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O24" t="n">
-        <v>539.0701737655885</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>415.4765238771483</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>321.9541114274841</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M27" t="n">
-        <v>422.461341477082</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>539.0701737655885</v>
+        <v>529.7242433674176</v>
       </c>
       <c r="P27" t="n">
         <v>415.4765238771483</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.5049832122893</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K28" t="n">
         <v>185.5440112890221</v>
@@ -36762,16 +36762,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N28" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O28" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P28" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>321.9541114274841</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>494.931677133318</v>
@@ -36920,16 +36920,16 @@
         <v>630.0661870786487</v>
       </c>
       <c r="N30" t="n">
-        <v>662.6078343185084</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>507.731801705201</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>380.7179282130954</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K31" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L31" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M31" t="n">
         <v>288.5430527135248</v>
@@ -37005,10 +37005,10 @@
         <v>257.9176141924233</v>
       </c>
       <c r="P31" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K33" t="n">
-        <v>321.9541114274841</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M33" t="n">
-        <v>485.1899648984982</v>
+        <v>271.5269338498665</v>
       </c>
       <c r="N33" t="n">
         <v>662.6078343185084</v>
@@ -37163,10 +37163,10 @@
         <v>539.0701737655885</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>321.9541114274841</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M36" t="n">
-        <v>630.0661870786487</v>
+        <v>511.688582007849</v>
       </c>
       <c r="N36" t="n">
-        <v>517.7316121383577</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O36" t="n">
         <v>539.0701737655885</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K37" t="n">
         <v>185.5440112890221</v>
@@ -37479,10 +37479,10 @@
         <v>257.9176141924233</v>
       </c>
       <c r="P37" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>415.6729862650351</v>
       </c>
       <c r="Q38" t="n">
-        <v>234.1513240212892</v>
+        <v>234.151324021289</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>321.9541114274841</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>494.931677133318</v>
+        <v>306.7462103060608</v>
       </c>
       <c r="M39" t="n">
         <v>630.0661870786487</v>
@@ -37634,13 +37634,13 @@
         <v>662.6078343185084</v>
       </c>
       <c r="O39" t="n">
-        <v>394.1939515854379</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597667</v>
       </c>
       <c r="K40" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L40" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M40" t="n">
-        <v>288.5430527135248</v>
+        <v>288.5430527135249</v>
       </c>
       <c r="N40" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O40" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P40" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394217</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>415.6729862650351</v>
       </c>
       <c r="Q41" t="n">
-        <v>234.151324021289</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>321.9541114274841</v>
+        <v>36.03186449166199</v>
       </c>
       <c r="L42" t="n">
         <v>494.931677133318</v>
@@ -37871,13 +37871,13 @@
         <v>662.6078343185084</v>
       </c>
       <c r="O42" t="n">
-        <v>394.1939515854379</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K43" t="n">
         <v>185.5440112890221</v>
@@ -37947,7 +37947,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N43" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O43" t="n">
         <v>257.9176141924233</v>
@@ -37956,7 +37956,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798124</v>
       </c>
       <c r="K44" t="n">
-        <v>391.6390448814895</v>
+        <v>391.6390448814896</v>
       </c>
       <c r="L44" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538414</v>
       </c>
       <c r="M44" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461274</v>
       </c>
       <c r="N44" t="n">
         <v>611.3358037124817</v>
       </c>
       <c r="O44" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864423</v>
       </c>
       <c r="P44" t="n">
-        <v>415.6729862650351</v>
+        <v>415.6729862650352</v>
       </c>
       <c r="Q44" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5378501197629</v>
+        <v>113.537850119763</v>
       </c>
       <c r="K45" t="n">
-        <v>321.9541114274841</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>494.931677133318</v>
+        <v>59.81373081545622</v>
       </c>
       <c r="M45" t="n">
         <v>630.0661870786487</v>
       </c>
       <c r="N45" t="n">
-        <v>662.6078343185084</v>
+        <v>662.6078343185085</v>
       </c>
       <c r="O45" t="n">
-        <v>394.1939515854379</v>
+        <v>539.0701737655886</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>68.33023601597665</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K46" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L46" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M46" t="n">
         <v>288.5430527135248</v>
@@ -38190,10 +38190,10 @@
         <v>257.9176141924233</v>
       </c>
       <c r="P46" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.74782875394216</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
